--- a/biology/Médecine/Acromion/Acromion.xlsx
+++ b/biology/Médecine/Acromion/Acromion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acromion (ou processus acromial) est un élément osseux de l'omoplate constituant le prolongement postérieur et latéral de l'épine de la scapula.
 </t>
@@ -511,20 +523,162 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acromion prolonge en avant et latéralement l'épine de la scapula. Il est plat de haut en bas.
 Il présente deux faces et deux bords.
-Face supérieure
-La face supérieure est sous-cutanée.
-Face inférieure
-La face inférieure est lisse et légèrement concave d'avant en arrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acromion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acromion</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face supérieure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face supérieure est sous-cutanée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acromion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acromion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face inférieure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face inférieure est lisse et légèrement concave d'avant en arrière.
 Une bourse synoviale la sépare de la tête humérale et du tendon du muscle supra-épineux.
-Bord latéral
-Le bord latéral est dans le prolongement de la lèvre supérieure du bord postérieur de l'épine. Il se coude à angle droit vers l'avant. Il donne insertion au faisceau moyen du muscle deltoïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acromion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acromion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bord latéral</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord latéral est dans le prolongement de la lèvre supérieure du bord postérieur de l'épine. Il se coude à angle droit vers l'avant. Il donne insertion au faisceau moyen du muscle deltoïde.
 Il termine par un bord antérieur court jusqu'à l'articulation acromio-claviculaire.
-Bord médian
-Le bord médian est court et dans le prolongement de l'épine. C'est une zone d'insertion du muscle trapèze dans le prolongement de son insertion sur l'épine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acromion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acromion</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bord médian</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord médian est court et dans le prolongement de l'épine. C'est une zone d'insertion du muscle trapèze dans le prolongement de son insertion sur l'épine.
 À l'avant, il présente la  facette articulaire claviculaire de la scapula plane et ovale regardant en avant, en dedans et en haut. Elle répond à la facette articulaire acromiale de la clavicule.
 </t>
         </is>
